--- a/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe25offb15.xlsx
+++ b/gr_optimization/Input_Output/BuyflowValidation/Merchandising Input/MeaningfulBeauty/mb7deluxe25offb15.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23621"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://guthyrenker.sharepoint.com/sites/ecommerce/Shared Documents/Merchandising Data Repo/MeaningfulBeauty/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="216" documentId="8_{28C1FD55-EBA9-4543-A41D-6C6CEDDA6E1D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{E5F9A711-3C4A-4639-B5E4-B743CD0B651C}"/>
+  <xr:revisionPtr revIDLastSave="216" documentId="8_{28C1FD55-EBA9-4543-A41D-6C6CEDDA6E1D}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{E5F9A711-3C4A-4639-B5E4-B743CD0B651C}"/>
   <bookViews>
     <workbookView xWindow="10350" yWindow="-16395" windowWidth="29040" windowHeight="16440" xr2:uid="{524ED125-30CC-4F05-9571-89364860FE01}"/>
   </bookViews>
   <sheets>
     <sheet name="Active Campaign" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191028"/>
+  <calcPr calcId="191028" calcCompleted="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -561,7 +561,7 @@
   <numFmts count="1">
     <numFmt numFmtId="8" formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1064,11 +1064,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A40A31-068D-481F-ABC9-D7BC0218B7AD}">
   <dimension ref="A1:I119"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A47" workbookViewId="0">
+      <selection activeCell="A66" sqref="A66"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="64.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="75" style="1" customWidth="1"/>
@@ -1082,7 +1082,7 @@
     <col min="10" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="5" t="s">
         <v>9</v>
       </c>
@@ -1140,7 +1140,7 @@
         <v>613</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1151,7 +1151,7 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="6" t="s">
         <v>16</v>
       </c>
@@ -1168,7 +1168,7 @@
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="6" t="s">
         <v>19</v>
       </c>
@@ -1185,7 +1185,7 @@
       <c r="H5" s="4"/>
       <c r="I5" s="4"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="6" t="s">
         <v>22</v>
       </c>
@@ -1202,7 +1202,7 @@
       <c r="H6" s="4"/>
       <c r="I6" s="4"/>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="18" t="s">
         <v>24</v>
       </c>
@@ -1215,7 +1215,7 @@
       <c r="H7" s="4"/>
       <c r="I7" s="4"/>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="6" t="s">
         <v>25</v>
       </c>
@@ -1232,7 +1232,7 @@
       <c r="H8" s="4"/>
       <c r="I8" s="4"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="6" t="s">
         <v>26</v>
       </c>
@@ -1249,7 +1249,7 @@
       <c r="H9" s="4"/>
       <c r="I9" s="4"/>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="6" t="s">
         <v>29</v>
       </c>
@@ -1266,7 +1266,7 @@
       <c r="H10" s="4"/>
       <c r="I10" s="4"/>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="6" t="s">
         <v>32</v>
       </c>
@@ -1283,7 +1283,7 @@
       <c r="H11" s="4"/>
       <c r="I11" s="4"/>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="6" t="s">
         <v>35</v>
       </c>
@@ -1300,7 +1300,7 @@
       <c r="H12" s="4"/>
       <c r="I12" s="4"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="6" t="s">
         <v>38</v>
       </c>
@@ -1317,7 +1317,7 @@
       <c r="H13" s="4"/>
       <c r="I13" s="4"/>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" s="6" t="s">
         <v>40</v>
       </c>
@@ -1334,7 +1334,7 @@
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="6" t="s">
         <v>41</v>
       </c>
@@ -1351,7 +1351,7 @@
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="6" t="s">
         <v>44</v>
       </c>
@@ -1368,7 +1368,7 @@
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="6" t="s">
         <v>45</v>
       </c>
@@ -1385,7 +1385,7 @@
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="6" t="s">
         <v>46</v>
       </c>
@@ -1402,7 +1402,7 @@
       <c r="H18" s="4"/>
       <c r="I18" s="4"/>
     </row>
-    <row r="19" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" ht="106.5" customHeight="1">
       <c r="A19" s="6" t="s">
         <v>49</v>
       </c>
@@ -1419,7 +1419,7 @@
       <c r="H19" s="4"/>
       <c r="I19" s="4"/>
     </row>
-    <row r="20" spans="1:9" ht="79.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" ht="79.5" customHeight="1">
       <c r="A20" s="6" t="s">
         <v>52</v>
       </c>
@@ -1436,7 +1436,7 @@
       <c r="H20" s="4"/>
       <c r="I20" s="4"/>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9">
       <c r="A21" s="6" t="s">
         <v>55</v>
       </c>
@@ -1453,7 +1453,7 @@
       <c r="H21" s="4"/>
       <c r="I21" s="4"/>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9">
       <c r="A22" s="6" t="s">
         <v>57</v>
       </c>
@@ -1470,7 +1470,7 @@
       <c r="H22" s="4"/>
       <c r="I22" s="4"/>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9">
       <c r="A23" s="6" t="s">
         <v>59</v>
       </c>
@@ -1487,7 +1487,7 @@
       <c r="H23" s="4"/>
       <c r="I23" s="4"/>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9">
       <c r="A24" s="6" t="s">
         <v>61</v>
       </c>
@@ -1502,7 +1502,7 @@
       <c r="H24" s="4"/>
       <c r="I24" s="4"/>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9">
       <c r="A25" s="6" t="s">
         <v>63</v>
       </c>
@@ -1515,7 +1515,7 @@
       <c r="H25" s="4"/>
       <c r="I25" s="4"/>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9">
       <c r="A26" s="6" t="s">
         <v>64</v>
       </c>
@@ -1528,7 +1528,7 @@
       <c r="H26" s="4"/>
       <c r="I26" s="4"/>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9">
       <c r="A27" s="6" t="s">
         <v>65</v>
       </c>
@@ -1545,7 +1545,7 @@
       <c r="H27" s="4"/>
       <c r="I27" s="4"/>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9">
       <c r="A28" s="6" t="s">
         <v>68</v>
       </c>
@@ -1562,7 +1562,7 @@
       <c r="H28" s="4"/>
       <c r="I28" s="4"/>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9">
       <c r="A29" s="6" t="s">
         <v>71</v>
       </c>
@@ -1579,7 +1579,7 @@
       <c r="H29" s="4"/>
       <c r="I29" s="4"/>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9">
       <c r="A30" s="6" t="s">
         <v>72</v>
       </c>
@@ -1596,7 +1596,7 @@
       <c r="H30" s="4"/>
       <c r="I30" s="4"/>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9">
       <c r="A31" s="6" t="s">
         <v>73</v>
       </c>
@@ -1613,7 +1613,7 @@
       <c r="H31" s="4"/>
       <c r="I31" s="4"/>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9">
       <c r="A32" s="6" t="s">
         <v>74</v>
       </c>
@@ -1630,7 +1630,7 @@
       <c r="H32" s="4"/>
       <c r="I32" s="4"/>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9">
       <c r="A33" s="6" t="s">
         <v>75</v>
       </c>
@@ -1647,7 +1647,7 @@
       <c r="H33" s="4"/>
       <c r="I33" s="4"/>
     </row>
-    <row r="34" spans="1:9" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" ht="106.5" customHeight="1">
       <c r="A34" s="6" t="s">
         <v>78</v>
       </c>
@@ -1664,7 +1664,7 @@
       <c r="H34" s="4"/>
       <c r="I34" s="4"/>
     </row>
-    <row r="35" spans="1:9" ht="78.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" ht="78.75" customHeight="1">
       <c r="A35" s="6" t="s">
         <v>81</v>
       </c>
@@ -1681,7 +1681,7 @@
       <c r="H35" s="4"/>
       <c r="I35" s="4"/>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9">
       <c r="A36" s="6" t="s">
         <v>84</v>
       </c>
@@ -1698,7 +1698,7 @@
       <c r="H36" s="4"/>
       <c r="I36" s="4"/>
     </row>
-    <row r="37" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" ht="60">
       <c r="A37" s="6" t="s">
         <v>87</v>
       </c>
@@ -1715,7 +1715,7 @@
       <c r="H37" s="4"/>
       <c r="I37" s="4"/>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9">
       <c r="A38" s="6" t="s">
         <v>90</v>
       </c>
@@ -1732,7 +1732,7 @@
       <c r="H38" s="4"/>
       <c r="I38" s="4"/>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9">
       <c r="A39" s="6" t="s">
         <v>91</v>
       </c>
@@ -1745,7 +1745,7 @@
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9">
       <c r="A40" s="6" t="s">
         <v>92</v>
       </c>
@@ -1758,7 +1758,7 @@
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9">
       <c r="A41" s="6" t="s">
         <v>93</v>
       </c>
@@ -1775,7 +1775,7 @@
       <c r="H41" s="4"/>
       <c r="I41" s="4"/>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9">
       <c r="A42" s="6" t="s">
         <v>94</v>
       </c>
@@ -1792,7 +1792,7 @@
       <c r="H42" s="4"/>
       <c r="I42" s="4"/>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9">
       <c r="A43" s="6" t="s">
         <v>95</v>
       </c>
@@ -1807,7 +1807,7 @@
       <c r="H43" s="4"/>
       <c r="I43" s="4"/>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9">
       <c r="A44" s="6" t="s">
         <v>96</v>
       </c>
@@ -1824,7 +1824,7 @@
       <c r="H44" s="4"/>
       <c r="I44" s="4"/>
     </row>
-    <row r="45" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" ht="15.75" customHeight="1">
       <c r="A45" s="6" t="s">
         <v>99</v>
       </c>
@@ -1841,7 +1841,7 @@
       <c r="H45" s="4"/>
       <c r="I45" s="4"/>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9">
       <c r="A46" s="6" t="s">
         <v>101</v>
       </c>
@@ -1858,7 +1858,7 @@
       <c r="H46" s="4"/>
       <c r="I46" s="4"/>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9">
       <c r="A47" s="6" t="s">
         <v>103</v>
       </c>
@@ -1875,7 +1875,7 @@
       <c r="H47" s="4"/>
       <c r="I47" s="4"/>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9">
       <c r="A48" s="6" t="s">
         <v>104</v>
       </c>
@@ -1892,7 +1892,7 @@
       <c r="H48" s="4"/>
       <c r="I48" s="4"/>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9">
       <c r="A49" s="6" t="s">
         <v>105</v>
       </c>
@@ -1909,7 +1909,7 @@
       <c r="H49" s="4"/>
       <c r="I49" s="4"/>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9">
       <c r="A50" s="6" t="s">
         <v>106</v>
       </c>
@@ -1926,7 +1926,7 @@
       <c r="H50" s="4"/>
       <c r="I50" s="4"/>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9">
       <c r="A51" s="6" t="s">
         <v>107</v>
       </c>
@@ -1943,7 +1943,7 @@
       <c r="H51" s="4"/>
       <c r="I51" s="4"/>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9">
       <c r="A52" s="6" t="s">
         <v>108</v>
       </c>
@@ -1960,7 +1960,7 @@
       <c r="H52" s="4"/>
       <c r="I52" s="4"/>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9">
       <c r="A53" s="6" t="s">
         <v>110</v>
       </c>
@@ -1977,7 +1977,7 @@
       <c r="H53" s="4"/>
       <c r="I53" s="4"/>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9">
       <c r="A54" s="6" t="s">
         <v>112</v>
       </c>
@@ -1988,7 +1988,7 @@
       <c r="H54" s="4"/>
       <c r="I54" s="4"/>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9">
       <c r="A55" s="18" t="s">
         <v>113</v>
       </c>
@@ -2001,7 +2001,7 @@
       <c r="H55" s="4"/>
       <c r="I55" s="4"/>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9">
       <c r="A56" s="6" t="s">
         <v>114</v>
       </c>
@@ -2018,7 +2018,7 @@
       <c r="H56" s="4"/>
       <c r="I56" s="4"/>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9">
       <c r="A57" s="6" t="s">
         <v>117</v>
       </c>
@@ -2035,7 +2035,7 @@
       <c r="H57" s="4"/>
       <c r="I57" s="4"/>
     </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9">
       <c r="A58" s="6" t="s">
         <v>120</v>
       </c>
@@ -2052,7 +2052,7 @@
       <c r="H58" s="4"/>
       <c r="I58" s="4"/>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9">
       <c r="A59" s="6" t="s">
         <v>123</v>
       </c>
@@ -2069,7 +2069,7 @@
       <c r="H59" s="4"/>
       <c r="I59" s="4"/>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9">
       <c r="A60" s="6" t="s">
         <v>126</v>
       </c>
@@ -2086,7 +2086,7 @@
       <c r="H60" s="4"/>
       <c r="I60" s="4"/>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9">
       <c r="A61" s="6" t="s">
         <v>127</v>
       </c>
@@ -2103,7 +2103,7 @@
       <c r="H61" s="4"/>
       <c r="I61" s="4"/>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9">
       <c r="A62" s="6" t="s">
         <v>129</v>
       </c>
@@ -2120,7 +2120,7 @@
       <c r="H62" s="4"/>
       <c r="I62" s="4"/>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9">
       <c r="A63" s="6" t="s">
         <v>130</v>
       </c>
@@ -2137,7 +2137,7 @@
       <c r="H63" s="4"/>
       <c r="I63" s="4"/>
     </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9">
       <c r="A64" s="6" t="s">
         <v>131</v>
       </c>
@@ -2154,7 +2154,7 @@
       <c r="H64" s="4"/>
       <c r="I64" s="4"/>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9">
       <c r="A65" s="6" t="s">
         <v>132</v>
       </c>
@@ -2171,7 +2171,7 @@
       <c r="H65" s="4"/>
       <c r="I65" s="4"/>
     </row>
-    <row r="66" spans="1:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" ht="120">
       <c r="A66" s="6" t="s">
         <v>135</v>
       </c>
@@ -2188,7 +2188,7 @@
       <c r="H66" s="4"/>
       <c r="I66" s="4"/>
     </row>
-    <row r="67" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" ht="90">
       <c r="A67" s="6" t="s">
         <v>138</v>
       </c>
@@ -2205,7 +2205,7 @@
       <c r="H67" s="4"/>
       <c r="I67" s="4"/>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9">
       <c r="A68" s="6" t="s">
         <v>141</v>
       </c>
@@ -2222,7 +2222,7 @@
       <c r="H68" s="4"/>
       <c r="I68" s="4"/>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9">
       <c r="A69" s="6" t="s">
         <v>142</v>
       </c>
@@ -2235,7 +2235,7 @@
       <c r="H69" s="4"/>
       <c r="I69" s="4"/>
     </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:9">
       <c r="A70" s="6" t="s">
         <v>143</v>
       </c>
@@ -2248,7 +2248,7 @@
       <c r="H70" s="4"/>
       <c r="I70" s="4"/>
     </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:9">
       <c r="A71" s="6" t="s">
         <v>144</v>
       </c>
@@ -2265,7 +2265,7 @@
       <c r="H71" s="4"/>
       <c r="I71" s="4"/>
     </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:9">
       <c r="A72" s="6" t="s">
         <v>145</v>
       </c>
@@ -2282,7 +2282,7 @@
       <c r="H72" s="4"/>
       <c r="I72" s="4"/>
     </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:9">
       <c r="A73" s="6" t="s">
         <v>146</v>
       </c>
@@ -2297,7 +2297,7 @@
       <c r="H73" s="4"/>
       <c r="I73" s="4"/>
     </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:9">
       <c r="A74" s="6" t="s">
         <v>65</v>
       </c>
@@ -2314,7 +2314,7 @@
       <c r="H74" s="4"/>
       <c r="I74" s="4"/>
     </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:9">
       <c r="A75" s="6" t="s">
         <v>68</v>
       </c>
@@ -2331,7 +2331,7 @@
       <c r="H75" s="4"/>
       <c r="I75" s="4"/>
     </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:9">
       <c r="A76" s="6" t="s">
         <v>71</v>
       </c>
@@ -2348,7 +2348,7 @@
       <c r="H76" s="4"/>
       <c r="I76" s="4"/>
     </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:9">
       <c r="A77" s="6" t="s">
         <v>72</v>
       </c>
@@ -2365,7 +2365,7 @@
       <c r="H77" s="4"/>
       <c r="I77" s="4"/>
     </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:9">
       <c r="A78" s="6" t="s">
         <v>73</v>
       </c>
@@ -2382,7 +2382,7 @@
       <c r="H78" s="4"/>
       <c r="I78" s="4"/>
     </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:9">
       <c r="A79" s="6" t="s">
         <v>74</v>
       </c>
@@ -2399,7 +2399,7 @@
       <c r="H79" s="4"/>
       <c r="I79" s="4"/>
     </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:9">
       <c r="A80" s="6" t="s">
         <v>75</v>
       </c>
@@ -2416,7 +2416,7 @@
       <c r="H80" s="4"/>
       <c r="I80" s="4"/>
     </row>
-    <row r="81" spans="1:9" ht="105" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:9" ht="105">
       <c r="A81" s="6" t="s">
         <v>78</v>
       </c>
@@ -2433,7 +2433,7 @@
       <c r="H81" s="4"/>
       <c r="I81" s="4"/>
     </row>
-    <row r="82" spans="1:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:9" ht="90">
       <c r="A82" s="6" t="s">
         <v>81</v>
       </c>
@@ -2450,7 +2450,7 @@
       <c r="H82" s="4"/>
       <c r="I82" s="4"/>
     </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:9">
       <c r="A83" s="6" t="s">
         <v>84</v>
       </c>
@@ -2467,7 +2467,7 @@
       <c r="H83" s="4"/>
       <c r="I83" s="4"/>
     </row>
-    <row r="84" spans="1:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:9" ht="60">
       <c r="A84" s="6" t="s">
         <v>87</v>
       </c>
@@ -2484,7 +2484,7 @@
       <c r="H84" s="4"/>
       <c r="I84" s="4"/>
     </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:9">
       <c r="A85" s="6" t="s">
         <v>90</v>
       </c>
@@ -2501,7 +2501,7 @@
       <c r="H85" s="4"/>
       <c r="I85" s="4"/>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:9">
       <c r="A86" s="6" t="s">
         <v>91</v>
       </c>
@@ -2514,7 +2514,7 @@
       <c r="H86" s="4"/>
       <c r="I86" s="4"/>
     </row>
-    <row r="87" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:9" ht="15.75">
       <c r="A87" s="6" t="s">
         <v>92</v>
       </c>
@@ -2527,7 +2527,7 @@
       <c r="H87" s="4"/>
       <c r="I87" s="4"/>
     </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:9">
       <c r="A88" s="6" t="s">
         <v>93</v>
       </c>
@@ -2544,7 +2544,7 @@
       <c r="H88" s="4"/>
       <c r="I88" s="4"/>
     </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:9">
       <c r="A89" s="6" t="s">
         <v>94</v>
       </c>
@@ -2561,7 +2561,7 @@
       <c r="H89" s="4"/>
       <c r="I89" s="4"/>
     </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:9">
       <c r="A90" s="6" t="s">
         <v>95</v>
       </c>
@@ -2576,7 +2576,7 @@
       <c r="H90" s="4"/>
       <c r="I90" s="4"/>
     </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:9">
       <c r="A91" s="6" t="s">
         <v>96</v>
       </c>
@@ -2593,7 +2593,7 @@
       <c r="H91" s="4"/>
       <c r="I91" s="4"/>
     </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:9">
       <c r="A92" s="6" t="s">
         <v>99</v>
       </c>
@@ -2610,7 +2610,7 @@
       <c r="H92" s="4"/>
       <c r="I92" s="4"/>
     </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:9">
       <c r="A93" s="6" t="s">
         <v>101</v>
       </c>
@@ -2627,7 +2627,7 @@
       <c r="H93" s="4"/>
       <c r="I93" s="4"/>
     </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:9">
       <c r="A94" s="6" t="s">
         <v>103</v>
       </c>
@@ -2644,7 +2644,7 @@
       <c r="H94" s="4"/>
       <c r="I94" s="4"/>
     </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:9">
       <c r="A95" s="6" t="s">
         <v>104</v>
       </c>
@@ -2661,7 +2661,7 @@
       <c r="H95" s="4"/>
       <c r="I95" s="4"/>
     </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:9">
       <c r="A96" s="6" t="s">
         <v>105</v>
       </c>
@@ -2678,7 +2678,7 @@
       <c r="H96" s="4"/>
       <c r="I96" s="4"/>
     </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:9">
       <c r="A97" s="6" t="s">
         <v>106</v>
       </c>
@@ -2695,7 +2695,7 @@
       <c r="H97" s="4"/>
       <c r="I97" s="4"/>
     </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:9">
       <c r="A98" s="6" t="s">
         <v>107</v>
       </c>
@@ -2712,7 +2712,7 @@
       <c r="H98" s="4"/>
       <c r="I98" s="4"/>
     </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:9">
       <c r="A99" s="6" t="s">
         <v>108</v>
       </c>
@@ -2729,7 +2729,7 @@
       <c r="H99" s="4"/>
       <c r="I99" s="4"/>
     </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:9">
       <c r="A100" s="6" t="s">
         <v>110</v>
       </c>
@@ -2746,7 +2746,7 @@
       <c r="H100" s="4"/>
       <c r="I100" s="4"/>
     </row>
-    <row r="101" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:9" ht="15.75">
       <c r="A101" s="17" t="s">
         <v>165</v>
       </c>
@@ -2759,7 +2759,7 @@
       <c r="H101" s="4"/>
       <c r="I101" s="4"/>
     </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:9">
       <c r="A102" s="4"/>
       <c r="B102" s="4"/>
       <c r="C102" s="4"/>
@@ -2770,7 +2770,7 @@
       <c r="H102" s="4"/>
       <c r="I102" s="4"/>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:9">
       <c r="A103" s="4"/>
       <c r="B103" s="4"/>
       <c r="C103" s="4"/>
@@ -2781,7 +2781,7 @@
       <c r="H103" s="4"/>
       <c r="I103" s="4"/>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:9">
       <c r="A104" s="4"/>
       <c r="B104" s="4"/>
       <c r="C104" s="4"/>
@@ -2792,7 +2792,7 @@
       <c r="H104" s="4"/>
       <c r="I104" s="4"/>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:9">
       <c r="A105" s="4"/>
       <c r="B105" s="4"/>
       <c r="C105" s="4"/>
@@ -2803,7 +2803,7 @@
       <c r="H105" s="4"/>
       <c r="I105" s="4"/>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:9">
       <c r="A106" s="4"/>
       <c r="B106" s="4"/>
       <c r="C106" s="4"/>
@@ -2814,7 +2814,7 @@
       <c r="H106" s="4"/>
       <c r="I106" s="4"/>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:9">
       <c r="A107" s="4"/>
       <c r="B107" s="4"/>
       <c r="C107" s="4"/>
@@ -2825,7 +2825,7 @@
       <c r="H107" s="4"/>
       <c r="I107" s="4"/>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:9">
       <c r="A108" s="4"/>
       <c r="B108" s="4"/>
       <c r="C108" s="4"/>
@@ -2836,7 +2836,7 @@
       <c r="H108" s="4"/>
       <c r="I108" s="4"/>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:9">
       <c r="A109" s="4"/>
       <c r="B109" s="4"/>
       <c r="C109" s="4"/>
@@ -2847,7 +2847,7 @@
       <c r="H109" s="4"/>
       <c r="I109" s="4"/>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:9">
       <c r="A110" s="4"/>
       <c r="B110" s="4"/>
       <c r="C110" s="4"/>
@@ -2858,7 +2858,7 @@
       <c r="H110" s="4"/>
       <c r="I110" s="4"/>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:9">
       <c r="A111" s="4"/>
       <c r="B111" s="4"/>
       <c r="C111" s="4"/>
@@ -2869,7 +2869,7 @@
       <c r="H111" s="4"/>
       <c r="I111" s="4"/>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:9">
       <c r="A112" s="4"/>
       <c r="B112" s="4"/>
       <c r="C112" s="4"/>
@@ -2880,7 +2880,7 @@
       <c r="H112" s="4"/>
       <c r="I112" s="4"/>
     </row>
-    <row r="113" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:9">
       <c r="A113" s="4"/>
       <c r="B113" s="4"/>
       <c r="C113" s="4"/>
@@ -2891,7 +2891,7 @@
       <c r="H113" s="4"/>
       <c r="I113" s="4"/>
     </row>
-    <row r="114" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:9">
       <c r="A114" s="4"/>
       <c r="B114" s="4"/>
       <c r="C114" s="4"/>
@@ -2902,7 +2902,7 @@
       <c r="H114" s="4"/>
       <c r="I114" s="4"/>
     </row>
-    <row r="115" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:9">
       <c r="A115" s="4"/>
       <c r="B115" s="4"/>
       <c r="C115" s="4"/>
@@ -2913,7 +2913,7 @@
       <c r="H115" s="4"/>
       <c r="I115" s="4"/>
     </row>
-    <row r="116" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:9">
       <c r="A116" s="4"/>
       <c r="B116" s="4"/>
       <c r="C116" s="4"/>
@@ -2924,7 +2924,7 @@
       <c r="H116" s="4"/>
       <c r="I116" s="4"/>
     </row>
-    <row r="117" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:9">
       <c r="A117" s="4"/>
       <c r="B117" s="4"/>
       <c r="C117" s="4"/>
@@ -2935,7 +2935,7 @@
       <c r="H117" s="4"/>
       <c r="I117" s="4"/>
     </row>
-    <row r="118" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:9">
       <c r="A118" s="4"/>
       <c r="B118" s="4"/>
       <c r="C118" s="4"/>
@@ -2946,7 +2946,7 @@
       <c r="H118" s="4"/>
       <c r="I118" s="4"/>
     </row>
-    <row r="119" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:9">
       <c r="A119" s="4"/>
       <c r="B119" s="4"/>
       <c r="C119" s="4"/>
@@ -2972,18 +2972,18 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3152,37 +3152,13 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F00A466-466B-4C48-8934-FE31FB6F7DA9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B59C4294-0C10-47A0-A930-B73060FE4B94}"/>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B59C4294-0C10-47A0-A930-B73060FE4B94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2F00A466-466B-4C48-8934-FE31FB6F7DA9}"/>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8630BE8-022D-49C7-AD20-390D8C82B12F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="9c6a6306-8d4e-455f-a7d8-70154a0dc4d2"/>
-    <ds:schemaRef ds:uri="3e63a3be-2d53-41f2-914e-dd0efc332534"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A8630BE8-022D-49C7-AD20-390D8C82B12F}"/>
 </file>